--- a/sample.xlsx
+++ b/sample.xlsx
@@ -41,10 +41,10 @@
     <t>Дивидены AT&amp;T</t>
   </si>
   <si>
-    <t>сумма выплаты после !налогов!</t>
-  </si>
-  <si>
     <t>удержанный !налог!</t>
+  </si>
+  <si>
+    <t>сумма выплаты до !налогов!</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,10 +391,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -411,7 +411,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3.74</v>
+        <v>4.16</v>
       </c>
       <c r="D2">
         <v>0.42</v>
